--- a/Samples/CSVs/Fall_2022_Edit_1.05_Students.xlsx
+++ b/Samples/CSVs/Fall_2022_Edit_1.05_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nates\Desktop\Senior_Design\UT-Student-Assignment\Samples\CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\UT-Student-Assignment\Samples\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AA39AC-AB4E-4DF1-850D-D11BE9B14E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C4E19-46A7-46A3-A112-2587529990E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Info" sheetId="1" r:id="rId1"/>
@@ -816,9 +816,6 @@
     <t>I19</t>
   </si>
   <si>
-    <t xml:space="preserve"> I20</t>
-  </si>
-  <si>
     <t>FH8</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>IH3</t>
+  </si>
+  <si>
+    <t>I20</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
@@ -14128,8 +14128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824E7E0-FD0D-402F-9FBD-7A8EB607EF1A}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14193,25 +14193,25 @@
         <v>258</v>
       </c>
       <c r="T1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>260</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>261</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>262</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>263</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">

--- a/Samples/CSVs/Fall_2022_Edit_1.05_Students.xlsx
+++ b/Samples/CSVs/Fall_2022_Edit_1.05_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\UT-Student-Assignment\Samples\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C4E19-46A7-46A3-A112-2587529990E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF5284-9743-4508-8089-57D955E9D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="270">
   <si>
     <t>Name</t>
   </si>
@@ -835,6 +835,18 @@
   </si>
   <si>
     <t>I20</t>
+  </si>
+  <si>
+    <t>Name100</t>
+  </si>
+  <si>
+    <t>EID100</t>
+  </si>
+  <si>
+    <t>Name101</t>
+  </si>
+  <si>
+    <t>EID101</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ100"/>
+  <dimension ref="A1:AQ102"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="AS96" sqref="AS96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>3</v>
@@ -14117,6 +14129,268 @@
       </c>
       <c r="AQ100">
         <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" t="s">
+        <v>267</v>
+      </c>
+      <c r="C101">
+        <v>3.3</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>4</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>4</v>
+      </c>
+      <c r="T101">
+        <v>5</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <v>4</v>
+      </c>
+      <c r="W101">
+        <v>5</v>
+      </c>
+      <c r="X101">
+        <v>5</v>
+      </c>
+      <c r="Y101">
+        <v>4</v>
+      </c>
+      <c r="Z101">
+        <v>5</v>
+      </c>
+      <c r="AA101">
+        <v>5</v>
+      </c>
+      <c r="AB101">
+        <v>2</v>
+      </c>
+      <c r="AC101">
+        <v>3</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>2</v>
+      </c>
+      <c r="AF101">
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <v>1</v>
+      </c>
+      <c r="AH101">
+        <v>4</v>
+      </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
+      <c r="AJ101">
+        <v>1</v>
+      </c>
+      <c r="AK101">
+        <v>2</v>
+      </c>
+      <c r="AL101">
+        <v>3</v>
+      </c>
+      <c r="AM101">
+        <v>2</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>3</v>
+      </c>
+      <c r="AP101">
+        <v>1</v>
+      </c>
+      <c r="AQ101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102">
+        <v>3.7</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>234</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>5</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>5</v>
+      </c>
+      <c r="W102">
+        <v>4</v>
+      </c>
+      <c r="X102">
+        <v>2</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>3</v>
+      </c>
+      <c r="AA102">
+        <v>4</v>
+      </c>
+      <c r="AB102">
+        <v>2</v>
+      </c>
+      <c r="AC102">
+        <v>4</v>
+      </c>
+      <c r="AD102">
+        <v>3</v>
+      </c>
+      <c r="AE102">
+        <v>1</v>
+      </c>
+      <c r="AF102">
+        <v>5</v>
+      </c>
+      <c r="AG102">
+        <v>3</v>
+      </c>
+      <c r="AH102">
+        <v>2</v>
+      </c>
+      <c r="AI102">
+        <v>1</v>
+      </c>
+      <c r="AJ102">
+        <v>4</v>
+      </c>
+      <c r="AK102">
+        <v>5</v>
+      </c>
+      <c r="AL102">
+        <v>2</v>
+      </c>
+      <c r="AM102">
+        <v>3</v>
+      </c>
+      <c r="AN102">
+        <v>4</v>
+      </c>
+      <c r="AO102">
+        <v>2</v>
+      </c>
+      <c r="AP102">
+        <v>1</v>
+      </c>
+      <c r="AQ102">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -14128,7 +14402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824E7E0-FD0D-402F-9FBD-7A8EB607EF1A}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>

--- a/Samples/CSVs/Fall_2022_Edit_1.05_Students.xlsx
+++ b/Samples/CSVs/Fall_2022_Edit_1.05_Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\UT-Student-Assignment\Samples\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF5284-9743-4508-8089-57D955E9D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB8989-8DF5-438C-93C3-55BEBC9E127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="266">
   <si>
     <t>Name</t>
   </si>
@@ -835,18 +835,6 @@
   </si>
   <si>
     <t>I20</t>
-  </si>
-  <si>
-    <t>Name100</t>
-  </si>
-  <si>
-    <t>EID100</t>
-  </si>
-  <si>
-    <t>Name101</t>
-  </si>
-  <si>
-    <t>EID101</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ102"/>
+  <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="AS96" sqref="AS96"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14129,268 +14117,6 @@
       </c>
       <c r="AQ100">
         <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" t="s">
-        <v>267</v>
-      </c>
-      <c r="C101">
-        <v>3.3</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>126</v>
-      </c>
-      <c r="J101">
-        <v>2</v>
-      </c>
-      <c r="K101">
-        <v>4</v>
-      </c>
-      <c r="L101">
-        <v>2</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="P101">
-        <v>4</v>
-      </c>
-      <c r="Q101">
-        <v>4</v>
-      </c>
-      <c r="R101">
-        <v>1</v>
-      </c>
-      <c r="S101">
-        <v>4</v>
-      </c>
-      <c r="T101">
-        <v>5</v>
-      </c>
-      <c r="U101">
-        <v>3</v>
-      </c>
-      <c r="V101">
-        <v>4</v>
-      </c>
-      <c r="W101">
-        <v>5</v>
-      </c>
-      <c r="X101">
-        <v>5</v>
-      </c>
-      <c r="Y101">
-        <v>4</v>
-      </c>
-      <c r="Z101">
-        <v>5</v>
-      </c>
-      <c r="AA101">
-        <v>5</v>
-      </c>
-      <c r="AB101">
-        <v>2</v>
-      </c>
-      <c r="AC101">
-        <v>3</v>
-      </c>
-      <c r="AD101">
-        <v>1</v>
-      </c>
-      <c r="AE101">
-        <v>2</v>
-      </c>
-      <c r="AF101">
-        <v>3</v>
-      </c>
-      <c r="AG101">
-        <v>1</v>
-      </c>
-      <c r="AH101">
-        <v>4</v>
-      </c>
-      <c r="AI101">
-        <v>2</v>
-      </c>
-      <c r="AJ101">
-        <v>1</v>
-      </c>
-      <c r="AK101">
-        <v>2</v>
-      </c>
-      <c r="AL101">
-        <v>3</v>
-      </c>
-      <c r="AM101">
-        <v>2</v>
-      </c>
-      <c r="AN101">
-        <v>1</v>
-      </c>
-      <c r="AO101">
-        <v>3</v>
-      </c>
-      <c r="AP101">
-        <v>1</v>
-      </c>
-      <c r="AQ101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>268</v>
-      </c>
-      <c r="B102" t="s">
-        <v>269</v>
-      </c>
-      <c r="C102">
-        <v>3.7</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102" t="s">
-        <v>234</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="Q102">
-        <v>1</v>
-      </c>
-      <c r="R102">
-        <v>5</v>
-      </c>
-      <c r="S102">
-        <v>1</v>
-      </c>
-      <c r="T102">
-        <v>1</v>
-      </c>
-      <c r="U102">
-        <v>1</v>
-      </c>
-      <c r="V102">
-        <v>5</v>
-      </c>
-      <c r="W102">
-        <v>4</v>
-      </c>
-      <c r="X102">
-        <v>2</v>
-      </c>
-      <c r="Y102">
-        <v>3</v>
-      </c>
-      <c r="Z102">
-        <v>3</v>
-      </c>
-      <c r="AA102">
-        <v>4</v>
-      </c>
-      <c r="AB102">
-        <v>2</v>
-      </c>
-      <c r="AC102">
-        <v>4</v>
-      </c>
-      <c r="AD102">
-        <v>3</v>
-      </c>
-      <c r="AE102">
-        <v>1</v>
-      </c>
-      <c r="AF102">
-        <v>5</v>
-      </c>
-      <c r="AG102">
-        <v>3</v>
-      </c>
-      <c r="AH102">
-        <v>2</v>
-      </c>
-      <c r="AI102">
-        <v>1</v>
-      </c>
-      <c r="AJ102">
-        <v>4</v>
-      </c>
-      <c r="AK102">
-        <v>5</v>
-      </c>
-      <c r="AL102">
-        <v>2</v>
-      </c>
-      <c r="AM102">
-        <v>3</v>
-      </c>
-      <c r="AN102">
-        <v>4</v>
-      </c>
-      <c r="AO102">
-        <v>2</v>
-      </c>
-      <c r="AP102">
-        <v>1</v>
-      </c>
-      <c r="AQ102">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Samples/CSVs/Fall_2022_Edit_1.05_Students.xlsx
+++ b/Samples/CSVs/Fall_2022_Edit_1.05_Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\UT-Student-Assignment\Samples\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB8989-8DF5-438C-93C3-55BEBC9E127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1661DB-BDCB-4BE5-9F83-A88293FFA074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="276">
   <si>
     <t>Name</t>
   </si>
@@ -835,16 +835,52 @@
   </si>
   <si>
     <t>I20</t>
+  </si>
+  <si>
+    <t>Name100</t>
+  </si>
+  <si>
+    <t>EID100</t>
+  </si>
+  <si>
+    <t>Name101</t>
+  </si>
+  <si>
+    <t>EID101</t>
+  </si>
+  <si>
+    <t>Name102</t>
+  </si>
+  <si>
+    <t>EID102</t>
+  </si>
+  <si>
+    <t>Name103</t>
+  </si>
+  <si>
+    <t>EID103</t>
+  </si>
+  <si>
+    <t>Name104</t>
+  </si>
+  <si>
+    <t>EID104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1152,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ100"/>
+  <dimension ref="A1:AQ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="AL105" sqref="AL105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14119,17 +14155,658 @@
         <v>2</v>
       </c>
     </row>
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" t="s">
+        <v>267</v>
+      </c>
+      <c r="C101">
+        <v>2.02</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>5</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="S101">
+        <v>5</v>
+      </c>
+      <c r="T101">
+        <v>4</v>
+      </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
+      <c r="V101">
+        <v>5</v>
+      </c>
+      <c r="W101">
+        <v>5</v>
+      </c>
+      <c r="X101">
+        <v>4</v>
+      </c>
+      <c r="Y101">
+        <v>4</v>
+      </c>
+      <c r="Z101">
+        <v>5</v>
+      </c>
+      <c r="AA101">
+        <v>5</v>
+      </c>
+      <c r="AB101">
+        <v>4</v>
+      </c>
+      <c r="AC101">
+        <v>4</v>
+      </c>
+      <c r="AD101">
+        <v>4</v>
+      </c>
+      <c r="AE101">
+        <v>4</v>
+      </c>
+      <c r="AF101">
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <v>4</v>
+      </c>
+      <c r="AH101">
+        <v>4</v>
+      </c>
+      <c r="AI101">
+        <v>5</v>
+      </c>
+      <c r="AJ101">
+        <v>3</v>
+      </c>
+      <c r="AK101">
+        <v>3</v>
+      </c>
+      <c r="AL101">
+        <v>2</v>
+      </c>
+      <c r="AM101">
+        <v>2</v>
+      </c>
+      <c r="AN101">
+        <v>4</v>
+      </c>
+      <c r="AO101">
+        <v>4</v>
+      </c>
+      <c r="AP101">
+        <v>3</v>
+      </c>
+      <c r="AQ101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102">
+        <v>3.4</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>5</v>
+      </c>
+      <c r="P102">
+        <v>2</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>5</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>3</v>
+      </c>
+      <c r="X102">
+        <v>3</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>3</v>
+      </c>
+      <c r="AA102">
+        <v>3</v>
+      </c>
+      <c r="AB102">
+        <v>3</v>
+      </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
+      <c r="AD102">
+        <v>3</v>
+      </c>
+      <c r="AE102">
+        <v>3</v>
+      </c>
+      <c r="AF102">
+        <v>3</v>
+      </c>
+      <c r="AG102">
+        <v>3</v>
+      </c>
+      <c r="AH102">
+        <v>3</v>
+      </c>
+      <c r="AI102">
+        <v>3</v>
+      </c>
+      <c r="AJ102">
+        <v>3</v>
+      </c>
+      <c r="AK102">
+        <v>3</v>
+      </c>
+      <c r="AL102">
+        <v>3</v>
+      </c>
+      <c r="AM102">
+        <v>3</v>
+      </c>
+      <c r="AN102">
+        <v>3</v>
+      </c>
+      <c r="AO102">
+        <v>3</v>
+      </c>
+      <c r="AP102">
+        <v>3</v>
+      </c>
+      <c r="AQ102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103" t="s">
+        <v>271</v>
+      </c>
+      <c r="C103">
+        <v>2.5</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>4</v>
+      </c>
+      <c r="U103">
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <v>4</v>
+      </c>
+      <c r="W103">
+        <v>3</v>
+      </c>
+      <c r="X103">
+        <v>3</v>
+      </c>
+      <c r="Y103">
+        <v>3</v>
+      </c>
+      <c r="Z103">
+        <v>3</v>
+      </c>
+      <c r="AA103">
+        <v>3</v>
+      </c>
+      <c r="AB103">
+        <v>3</v>
+      </c>
+      <c r="AC103">
+        <v>3</v>
+      </c>
+      <c r="AD103">
+        <v>3</v>
+      </c>
+      <c r="AE103">
+        <v>3</v>
+      </c>
+      <c r="AF103">
+        <v>3</v>
+      </c>
+      <c r="AG103">
+        <v>3</v>
+      </c>
+      <c r="AH103">
+        <v>3</v>
+      </c>
+      <c r="AI103">
+        <v>3</v>
+      </c>
+      <c r="AJ103">
+        <v>3</v>
+      </c>
+      <c r="AK103">
+        <v>3</v>
+      </c>
+      <c r="AL103">
+        <v>3</v>
+      </c>
+      <c r="AM103">
+        <v>3</v>
+      </c>
+      <c r="AN103">
+        <v>3</v>
+      </c>
+      <c r="AO103">
+        <v>3</v>
+      </c>
+      <c r="AP103">
+        <v>3</v>
+      </c>
+      <c r="AQ103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>272</v>
+      </c>
+      <c r="B104" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>4</v>
+      </c>
+      <c r="P104">
+        <v>2</v>
+      </c>
+      <c r="Q104">
+        <v>4</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>5</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>5</v>
+      </c>
+      <c r="W104">
+        <v>3</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104">
+        <v>3</v>
+      </c>
+      <c r="Z104">
+        <v>3</v>
+      </c>
+      <c r="AA104">
+        <v>3</v>
+      </c>
+      <c r="AB104">
+        <v>3</v>
+      </c>
+      <c r="AC104">
+        <v>3</v>
+      </c>
+      <c r="AD104">
+        <v>3</v>
+      </c>
+      <c r="AE104">
+        <v>3</v>
+      </c>
+      <c r="AF104">
+        <v>3</v>
+      </c>
+      <c r="AG104">
+        <v>3</v>
+      </c>
+      <c r="AH104">
+        <v>3</v>
+      </c>
+      <c r="AI104">
+        <v>3</v>
+      </c>
+      <c r="AJ104">
+        <v>3</v>
+      </c>
+      <c r="AK104">
+        <v>3</v>
+      </c>
+      <c r="AL104">
+        <v>3</v>
+      </c>
+      <c r="AM104">
+        <v>3</v>
+      </c>
+      <c r="AN104">
+        <v>3</v>
+      </c>
+      <c r="AO104">
+        <v>3</v>
+      </c>
+      <c r="AP104">
+        <v>3</v>
+      </c>
+      <c r="AQ104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>274</v>
+      </c>
+      <c r="B105" t="s">
+        <v>275</v>
+      </c>
+      <c r="C105">
+        <v>3.2</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>3</v>
+      </c>
+      <c r="Q105">
+        <v>5</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>3</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>5</v>
+      </c>
+      <c r="W105">
+        <v>3</v>
+      </c>
+      <c r="X105">
+        <v>3</v>
+      </c>
+      <c r="Y105">
+        <v>3</v>
+      </c>
+      <c r="Z105">
+        <v>3</v>
+      </c>
+      <c r="AA105">
+        <v>3</v>
+      </c>
+      <c r="AB105">
+        <v>3</v>
+      </c>
+      <c r="AC105">
+        <v>3</v>
+      </c>
+      <c r="AD105">
+        <v>3</v>
+      </c>
+      <c r="AE105">
+        <v>3</v>
+      </c>
+      <c r="AF105">
+        <v>3</v>
+      </c>
+      <c r="AG105">
+        <v>3</v>
+      </c>
+      <c r="AH105">
+        <v>3</v>
+      </c>
+      <c r="AI105">
+        <v>3</v>
+      </c>
+      <c r="AJ105">
+        <v>3</v>
+      </c>
+      <c r="AK105">
+        <v>3</v>
+      </c>
+      <c r="AL105">
+        <v>3</v>
+      </c>
+      <c r="AM105">
+        <v>3</v>
+      </c>
+      <c r="AN105">
+        <v>3</v>
+      </c>
+      <c r="AO105">
+        <v>3</v>
+      </c>
+      <c r="AP105">
+        <v>3</v>
+      </c>
+      <c r="AQ105">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824E7E0-FD0D-402F-9FBD-7A8EB607EF1A}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22092,31 +22769,31 @@
         <v>4</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N100">
         <v>5</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S100">
         <v>2</v>
       </c>
       <c r="T100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V100">
         <v>1</v>
@@ -22128,10 +22805,410 @@
         <v>1</v>
       </c>
       <c r="Y100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>5</v>
+      </c>
+      <c r="P101">
+        <v>3</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101">
+        <v>4</v>
+      </c>
+      <c r="T101">
+        <v>4</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>5</v>
+      </c>
+      <c r="X101">
+        <v>2</v>
+      </c>
+      <c r="Y101">
+        <v>5</v>
+      </c>
+      <c r="Z101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>5</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>3</v>
+      </c>
+      <c r="X102">
+        <v>1</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>2</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>3</v>
+      </c>
+      <c r="W103">
+        <v>3</v>
+      </c>
+      <c r="X103">
+        <v>3</v>
+      </c>
+      <c r="Y103">
+        <v>3</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>5</v>
+      </c>
+      <c r="P104">
+        <v>3</v>
+      </c>
+      <c r="Q104">
+        <v>3</v>
+      </c>
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>4</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>2</v>
+      </c>
+      <c r="X104">
+        <v>2</v>
+      </c>
+      <c r="Y104">
+        <v>3</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>4</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>5</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>5</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>5</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
+      <c r="W105">
+        <v>4</v>
+      </c>
+      <c r="X105">
+        <v>3</v>
+      </c>
+      <c r="Y105">
+        <v>2</v>
+      </c>
+      <c r="Z105">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
